--- a/Data_clean/MCAS/Estados_US/Edos_USA_2014/HAWAII_2014.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2014/HAWAII_2014.xlsx
@@ -434,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -483,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -496,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -545,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -630,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -643,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -656,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -669,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -682,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -695,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -708,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -721,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -734,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -801,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -814,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -827,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -840,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Malinalco</t>
@@ -853,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -866,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -879,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -892,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Zumpango</t>
@@ -941,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>León</t>
@@ -954,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -967,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -980,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -993,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -1006,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -1055,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -1140,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Cabo Corrientes</t>
@@ -1153,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1166,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Huejuquilla El Alto</t>
@@ -1179,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -1192,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -1205,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1218,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -1231,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>San Gabriel</t>
@@ -1244,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -1257,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -1270,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -1283,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -1296,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -1309,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1322,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1353,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Jacona</t>
@@ -1366,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Jiquilpan</t>
@@ -1379,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1392,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -1405,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Marcos Castellanos</t>
@@ -1418,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -1431,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1444,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1529,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -1542,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -1555,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -1568,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Santa María Del Oro</t>
@@ -1581,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -1594,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -1607,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1620,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1669,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Ixtlán De Juárez</t>
@@ -1682,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Juchitán De Zaragoza</t>
@@ -1695,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -1708,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>San Martín Peras</t>
@@ -1721,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>San Pedro Yólox</t>
@@ -1734,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>San Sebastián Ixcapa</t>
@@ -1747,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -1760,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Santo Tomás Ocotepec</t>
@@ -1773,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Tepelmeme Villa De Morelos</t>
@@ -1786,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Tezoatlán De Segura Y Luna</t>
@@ -1835,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -1848,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -1861,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Mazapiltepec De Juárez</t>
@@ -1874,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -1923,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Navolato</t>
@@ -1936,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -1985,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>San Luis Río Colorado</t>
@@ -2070,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Ixtaczoquitlán</t>
@@ -2083,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -2096,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Totutla</t>
@@ -2145,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Tabasco</t>
@@ -2158,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Valparaíso</t>
